--- a/modbusRTU协议.xlsx
+++ b/modbusRTU协议.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="273">
   <si>
     <t>地址
 （1字节）</t>
@@ -774,6 +774,33 @@
   </si>
   <si>
     <t>前四个字节是group ID，后面4个字节是包需要；返回的数据和0x4048不同的是，这里不会再返回序号；一包数据包含220个字节的日志</t>
+  </si>
+  <si>
+    <t>修改modbus密码(写)</t>
+  </si>
+  <si>
+    <t>0x4052</t>
+  </si>
+  <si>
+    <t>3A 7C F2 15 8E 44 B9 6D 1A 2B 3C 4D 5E 6F 70 71</t>
+  </si>
+  <si>
+    <t>分两种情况：1.如果还没有设置密码：此接口的数据只有8个字节，就是要设置的密码；2.如果已经设置密码，数据应该有16个字节，前8个字节是旧的密码，后8个字节是新的密码；</t>
+  </si>
+  <si>
+    <t>密码固定8个字节；一旦设置密码，写命令之前需要解锁，解锁成功，将拥有2个小时的操作时间；2个小时后锁定，需要重新解锁；重启设备将重新锁定。</t>
+  </si>
+  <si>
+    <t>解锁（写）</t>
+  </si>
+  <si>
+    <t>0x4053</t>
+  </si>
+  <si>
+    <t>3A 7C F2 15 8E 44 B9 6D</t>
+  </si>
+  <si>
+    <t>8个字节的密码</t>
   </si>
   <si>
     <t>启动发送MCU固件</t>
@@ -1019,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1412,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,16 +1436,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1421,89 +1454,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,6 +1568,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2089,7 +2134,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2107,28 +2152,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:10">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2267,7 +2312,7 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
@@ -2299,7 +2344,7 @@
       <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="H12" t="s">
@@ -2308,7 +2353,7 @@
       <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2340,7 +2385,7 @@
       <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2401,7 +2446,7 @@
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2491,7 +2536,7 @@
       <c r="I24" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2567,8 +2612,8 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2660,7 +2705,7 @@
       <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2680,7 +2725,7 @@
       <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2697,7 +2742,7 @@
       <c r="C7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2714,7 +2759,7 @@
       <c r="C8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2731,7 +2776,7 @@
       <c r="C9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2748,7 +2793,7 @@
       <c r="C10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2765,7 +2810,7 @@
       <c r="C11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2938,7 +2983,7 @@
       <c r="D21" s="4">
         <v>70</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2952,7 +2997,7 @@
       <c r="C22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3114,7 +3159,7 @@
       <c r="C32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -3131,7 +3176,7 @@
       <c r="C33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -3270,7 +3315,7 @@
       <c r="D41" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="22" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3389,7 +3434,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" ht="40.5" spans="1:5">
+    <row r="49" ht="40.5" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>205</v>
       </c>
@@ -3406,7 +3451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" ht="67.5" spans="1:5">
+    <row r="50" ht="67.5" spans="1:6">
       <c r="A50" s="10" t="s">
         <v>209</v>
       </c>
@@ -3423,7 +3468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" ht="94.5" spans="1:5">
+    <row r="51" ht="94.5" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>213</v>
       </c>
@@ -3440,7 +3485,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>217</v>
       </c>
@@ -3457,7 +3502,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>221</v>
       </c>
@@ -3474,7 +3519,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="1:5">
+    <row r="54" ht="27" spans="1:6">
       <c r="A54" s="3" t="s">
         <v>225</v>
       </c>
@@ -3491,7 +3536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="1:5">
+    <row r="55" ht="27" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>229</v>
       </c>
@@ -3508,7 +3553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" ht="27" spans="1:5">
+    <row r="56" ht="27" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>229</v>
       </c>
@@ -3525,7 +3570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
         <v>234</v>
       </c>
@@ -3540,7 +3585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>237</v>
       </c>
@@ -3557,7 +3602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" ht="40.5" spans="1:5">
+    <row r="59" ht="40.5" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>241</v>
       </c>
@@ -3574,149 +3619,172 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
+    <row r="60" ht="54" spans="1:6">
+      <c r="A60" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>248</v>
+      <c r="C64" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>248</v>
+        <v>263</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5">

--- a/modbusRTU协议.xlsx
+++ b/modbusRTU协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="12585" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="协议定义" sheetId="2" r:id="rId1"/>
@@ -2137,18 +2137,18 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.3628318584071" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" customWidth="1"/>
-    <col min="3" max="3" width="12.283185840708" customWidth="1"/>
-    <col min="4" max="4" width="15.0796460176991" customWidth="1"/>
-    <col min="5" max="5" width="14.7433628318584" customWidth="1"/>
-    <col min="6" max="6" width="12.353982300885" customWidth="1"/>
-    <col min="7" max="7" width="62.4601769911504" customWidth="1"/>
-    <col min="8" max="8" width="20.3097345132743" customWidth="1"/>
-    <col min="9" max="9" width="20.1858407079646" customWidth="1"/>
-    <col min="10" max="10" width="26.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="25.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.7416666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.35" customWidth="1"/>
+    <col min="7" max="7" width="62.4583333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.3083333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.1833333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:10">
@@ -2612,19 +2612,19 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.353982300885" customWidth="1"/>
-    <col min="2" max="2" width="21.9115044247788" customWidth="1"/>
-    <col min="3" max="3" width="24.4336283185841" customWidth="1"/>
-    <col min="4" max="4" width="117.41592920354" customWidth="1"/>
-    <col min="5" max="5" width="41.4867256637168" customWidth="1"/>
-    <col min="6" max="6" width="50.9823008849558" customWidth="1"/>
-    <col min="9" max="9" width="40.0973451327434" customWidth="1"/>
+    <col min="1" max="1" width="41.35" customWidth="1"/>
+    <col min="2" max="2" width="21.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.4333333333333" customWidth="1"/>
+    <col min="4" max="4" width="117.416666666667" customWidth="1"/>
+    <col min="5" max="5" width="41.4833333333333" customWidth="1"/>
+    <col min="6" max="6" width="50.9833333333333" customWidth="1"/>
+    <col min="9" max="9" width="40.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
